--- a/Git Analisis/Reportes de atencion/Bases de datos/Reporte Semanal Oct2021-Actualidad.xlsx
+++ b/Git Analisis/Reportes de atencion/Bases de datos/Reporte Semanal Oct2021-Actualidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correobuap-my.sharepoint.com/personal/hessael_lopez_alumno_buap_mx/Documents/Análisis de Datos Primavera 2023/projects/SIS/SIS-Geo/Git Analisis/Reportes de atencion/Bases de datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{4B51FFC0-39DF-4B09-8142-26C9C0A0DC38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17DFDC7-99C0-42FD-830E-546248893C2E}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{4B51FFC0-39DF-4B09-8142-26C9C0A0DC38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9905F3-899B-4A0A-AD8F-2280708587B4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2" xr2:uid="{1879A2A2-4AAD-41B0-9426-906B77BD2677}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" firstSheet="13" activeTab="19" xr2:uid="{1879A2A2-4AAD-41B0-9426-906B77BD2677}"/>
   </bookViews>
   <sheets>
     <sheet name="Octubre 2021" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="74">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>Atención psicológica de primer contacto a NNyA en UAM</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
   </si>
   <si>
     <t>Tipo de servicio</t>
@@ -762,7 +759,7 @@
         <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3121,7 +3118,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -5409,7 +5406,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -7625,7 +7622,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -9912,7 +9909,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -12155,7 +12152,7 @@
         <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -14470,15 +14467,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -14486,7 +14483,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>29</v>
@@ -14494,7 +14491,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>39</v>
@@ -14502,7 +14499,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>31</v>
@@ -14510,7 +14507,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
@@ -14518,7 +14515,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>33</v>
@@ -14526,7 +14523,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>47</v>
@@ -14534,7 +14531,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>48</v>
@@ -14542,7 +14539,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>40</v>
@@ -14550,7 +14547,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>43</v>
@@ -14558,7 +14555,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>34</v>
@@ -14566,7 +14563,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>30</v>
@@ -14574,7 +14571,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>44</v>
@@ -14582,7 +14579,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>49</v>
@@ -14590,7 +14587,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>50</v>
@@ -14598,7 +14595,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>51</v>
@@ -14606,7 +14603,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>52</v>
@@ -14614,7 +14611,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>53</v>
@@ -14622,7 +14619,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>54</v>
@@ -14630,7 +14627,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>55</v>
@@ -14638,7 +14635,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>56</v>
@@ -14646,7 +14643,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>41</v>
@@ -14654,7 +14651,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>57</v>
@@ -14662,7 +14659,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>58</v>
@@ -14670,7 +14667,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>59</v>
@@ -14678,15 +14675,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>60</v>
@@ -14694,7 +14691,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>61</v>
@@ -14702,7 +14699,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>42</v>
@@ -14710,7 +14707,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>62</v>
@@ -14718,7 +14715,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>35</v>
@@ -14726,7 +14723,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>36</v>
@@ -14734,7 +14731,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>37</v>
@@ -14742,18 +14739,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -14904,7 +14901,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -14916,7 +14913,7 @@
         <v>42</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
         <v>44</v>
@@ -17194,7 +17191,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -17206,7 +17203,7 @@
         <v>42</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
         <v>44</v>
@@ -19268,7 +19265,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -19280,7 +19277,7 @@
         <v>42</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
         <v>44</v>
@@ -21502,8 +21499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B3093-6152-4FA3-9634-CD49D76D4835}">
   <dimension ref="A1:D841"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30776,7 +30773,7 @@
         <v>45017</v>
       </c>
       <c r="C662" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D662" s="13">
         <v>0</v>
@@ -30790,7 +30787,7 @@
         <v>45018</v>
       </c>
       <c r="C663" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D663" s="13">
         <v>0</v>
@@ -30804,7 +30801,7 @@
         <v>45019</v>
       </c>
       <c r="C664" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D664" s="9">
         <v>0</v>
@@ -30818,7 +30815,7 @@
         <v>45020</v>
       </c>
       <c r="C665" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D665" s="9">
         <v>0</v>
@@ -30832,7 +30829,7 @@
         <v>45021</v>
       </c>
       <c r="C666" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D666" s="9">
         <v>0</v>
@@ -30846,7 +30843,7 @@
         <v>45022</v>
       </c>
       <c r="C667" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D667" s="9">
         <v>0</v>
@@ -30860,7 +30857,7 @@
         <v>45023</v>
       </c>
       <c r="C668" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D668" s="9">
         <v>0</v>
@@ -30874,7 +30871,7 @@
         <v>45024</v>
       </c>
       <c r="C669" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D669" s="9">
         <v>0</v>
@@ -30888,7 +30885,7 @@
         <v>45025</v>
       </c>
       <c r="C670" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D670" s="9">
         <v>0</v>
@@ -30902,7 +30899,7 @@
         <v>45026</v>
       </c>
       <c r="C671" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D671" s="9">
         <v>4</v>
@@ -30916,7 +30913,7 @@
         <v>45027</v>
       </c>
       <c r="C672" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D672" s="9">
         <v>3</v>
@@ -30930,7 +30927,7 @@
         <v>45028</v>
       </c>
       <c r="C673" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D673" s="9">
         <v>2</v>
@@ -30944,7 +30941,7 @@
         <v>45029</v>
       </c>
       <c r="C674" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D674" s="9">
         <v>3</v>
@@ -30958,7 +30955,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D675" s="9">
         <v>7</v>
@@ -30972,7 +30969,7 @@
         <v>45031</v>
       </c>
       <c r="C676" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D676" s="9">
         <v>0</v>
@@ -30986,7 +30983,7 @@
         <v>45032</v>
       </c>
       <c r="C677" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D677" s="9">
         <v>0</v>
@@ -31000,7 +30997,7 @@
         <v>45033</v>
       </c>
       <c r="C678" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D678" s="9">
         <v>6</v>
@@ -31014,7 +31011,7 @@
         <v>45034</v>
       </c>
       <c r="C679" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D679" s="9">
         <v>5</v>
@@ -31028,7 +31025,7 @@
         <v>45035</v>
       </c>
       <c r="C680" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D680" s="9">
         <v>6</v>
@@ -31042,7 +31039,7 @@
         <v>45036</v>
       </c>
       <c r="C681" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D681" s="9">
         <v>4</v>
@@ -31056,7 +31053,7 @@
         <v>45037</v>
       </c>
       <c r="C682" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D682" s="9">
         <v>6</v>
@@ -31070,7 +31067,7 @@
         <v>45038</v>
       </c>
       <c r="C683" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D683" s="9">
         <v>0</v>
@@ -31084,7 +31081,7 @@
         <v>45039</v>
       </c>
       <c r="C684" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D684" s="9">
         <v>0</v>
@@ -31098,7 +31095,7 @@
         <v>45040</v>
       </c>
       <c r="C685" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D685" s="9">
         <v>2</v>
@@ -31112,7 +31109,7 @@
         <v>45041</v>
       </c>
       <c r="C686" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D686" s="9">
         <v>7</v>
@@ -31126,7 +31123,7 @@
         <v>45042</v>
       </c>
       <c r="C687" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D687" s="9">
         <v>6</v>
@@ -31140,7 +31137,7 @@
         <v>45043</v>
       </c>
       <c r="C688" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D688" s="9">
         <v>7</v>
@@ -31154,7 +31151,7 @@
         <v>45044</v>
       </c>
       <c r="C689" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D689" s="9">
         <v>8</v>
@@ -31168,7 +31165,7 @@
         <v>45045</v>
       </c>
       <c r="C690" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D690" s="9">
         <v>0</v>
@@ -31182,7 +31179,7 @@
         <v>45046</v>
       </c>
       <c r="C691" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D691" s="9">
         <v>0</v>
@@ -32876,7 +32873,7 @@
         <v>45017</v>
       </c>
       <c r="C812" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D812" s="13">
         <v>0</v>
@@ -32890,7 +32887,7 @@
         <v>45018</v>
       </c>
       <c r="C813" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D813" s="13">
         <v>0</v>
@@ -32904,7 +32901,7 @@
         <v>45019</v>
       </c>
       <c r="C814" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D814" s="9">
         <v>0</v>
@@ -32918,7 +32915,7 @@
         <v>45020</v>
       </c>
       <c r="C815" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D815" s="9">
         <v>0</v>
@@ -32932,7 +32929,7 @@
         <v>45021</v>
       </c>
       <c r="C816" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D816" s="9">
         <v>0</v>
@@ -32946,7 +32943,7 @@
         <v>45022</v>
       </c>
       <c r="C817" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D817" s="9">
         <v>0</v>
@@ -32960,7 +32957,7 @@
         <v>45023</v>
       </c>
       <c r="C818" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D818" s="9">
         <v>0</v>
@@ -32974,7 +32971,7 @@
         <v>45024</v>
       </c>
       <c r="C819" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D819" s="9">
         <v>0</v>
@@ -32988,7 +32985,7 @@
         <v>45025</v>
       </c>
       <c r="C820" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D820" s="9">
         <v>0</v>
@@ -33002,7 +32999,7 @@
         <v>45026</v>
       </c>
       <c r="C821" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D821" s="9">
         <v>0</v>
@@ -33016,7 +33013,7 @@
         <v>45027</v>
       </c>
       <c r="C822" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D822" s="9">
         <v>0</v>
@@ -33030,7 +33027,7 @@
         <v>45028</v>
       </c>
       <c r="C823" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D823" s="9">
         <v>0</v>
@@ -33044,7 +33041,7 @@
         <v>45029</v>
       </c>
       <c r="C824" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D824" s="9">
         <v>0</v>
@@ -33058,7 +33055,7 @@
         <v>45030</v>
       </c>
       <c r="C825" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D825" s="9">
         <v>0</v>
@@ -33072,7 +33069,7 @@
         <v>45031</v>
       </c>
       <c r="C826" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D826" s="9">
         <v>0</v>
@@ -33086,7 +33083,7 @@
         <v>45032</v>
       </c>
       <c r="C827" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D827" s="9">
         <v>0</v>
@@ -33100,7 +33097,7 @@
         <v>45033</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D828" s="9">
         <v>0</v>
@@ -33114,7 +33111,7 @@
         <v>45034</v>
       </c>
       <c r="C829" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D829" s="9">
         <v>0</v>
@@ -33128,7 +33125,7 @@
         <v>45035</v>
       </c>
       <c r="C830" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D830" s="9">
         <v>0</v>
@@ -33142,7 +33139,7 @@
         <v>45036</v>
       </c>
       <c r="C831" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D831" s="9">
         <v>0</v>
@@ -33156,7 +33153,7 @@
         <v>45037</v>
       </c>
       <c r="C832" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D832" s="9">
         <v>0</v>
@@ -33170,7 +33167,7 @@
         <v>45038</v>
       </c>
       <c r="C833" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D833" s="9">
         <v>0</v>
@@ -33184,7 +33181,7 @@
         <v>45039</v>
       </c>
       <c r="C834" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D834" s="9">
         <v>0</v>
@@ -33198,7 +33195,7 @@
         <v>45040</v>
       </c>
       <c r="C835" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D835" s="9">
         <v>0</v>
@@ -33212,7 +33209,7 @@
         <v>45041</v>
       </c>
       <c r="C836" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D836" s="9">
         <v>0</v>
@@ -33226,7 +33223,7 @@
         <v>45042</v>
       </c>
       <c r="C837" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D837" s="9">
         <v>0</v>
@@ -33240,7 +33237,7 @@
         <v>45043</v>
       </c>
       <c r="C838" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D838" s="9">
         <v>0</v>
@@ -33254,7 +33251,7 @@
         <v>45044</v>
       </c>
       <c r="C839" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D839" s="9">
         <v>0</v>
@@ -33268,7 +33265,7 @@
         <v>45045</v>
       </c>
       <c r="C840" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D840" s="9">
         <v>0</v>
@@ -33282,7 +33279,7 @@
         <v>45046</v>
       </c>
       <c r="C841" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D841" s="9">
         <v>0</v>
@@ -33378,7 +33375,7 @@
         <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -35607,8 +35604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD2BD66-852E-4EA2-A93E-C7564B8F31AF}">
   <dimension ref="A1:D807"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35624,10 +35621,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -40412,7 +40409,7 @@
         <v>45047</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D343" s="9">
         <v>0</v>
@@ -40426,7 +40423,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D344" s="9">
         <v>0</v>
@@ -40440,7 +40437,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D345" s="9">
         <v>0</v>
@@ -40454,7 +40451,7 @@
         <v>45050</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D346" s="9">
         <v>0</v>
@@ -40468,7 +40465,7 @@
         <v>45051</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D347" s="9">
         <v>0</v>
@@ -40482,7 +40479,7 @@
         <v>45052</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D348" s="9">
         <v>0</v>
@@ -40496,7 +40493,7 @@
         <v>45053</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D349" s="9">
         <v>0</v>
@@ -40510,7 +40507,7 @@
         <v>45054</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D350" s="9">
         <v>0</v>
@@ -40524,7 +40521,7 @@
         <v>45055</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D351" s="9">
         <v>0</v>
@@ -40538,7 +40535,7 @@
         <v>45056</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D352" s="9">
         <v>0</v>
@@ -40552,7 +40549,7 @@
         <v>45057</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D353" s="9">
         <v>0</v>
@@ -40566,7 +40563,7 @@
         <v>45058</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D354" s="9">
         <v>2</v>
@@ -40580,7 +40577,7 @@
         <v>45059</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D355" s="9">
         <v>0</v>
@@ -40594,7 +40591,7 @@
         <v>45060</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D356" s="9">
         <v>0</v>
@@ -40608,7 +40605,7 @@
         <v>45061</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D357" s="9">
         <v>0</v>
@@ -40622,7 +40619,7 @@
         <v>45062</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D358" s="9">
         <v>0</v>
@@ -40636,7 +40633,7 @@
         <v>45063</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D359" s="9">
         <v>0</v>
@@ -40650,7 +40647,7 @@
         <v>45064</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D360" s="9">
         <v>0</v>
@@ -40664,7 +40661,7 @@
         <v>45065</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D361" s="9">
         <v>0</v>
@@ -40678,7 +40675,7 @@
         <v>45066</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D362" s="9">
         <v>0</v>
@@ -40692,7 +40689,7 @@
         <v>45067</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D363" s="9">
         <v>0</v>
@@ -40706,7 +40703,7 @@
         <v>45068</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D364" s="9">
         <v>5</v>
@@ -40720,7 +40717,7 @@
         <v>45069</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D365" s="9">
         <v>0</v>
@@ -40734,7 +40731,7 @@
         <v>45070</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D366" s="9">
         <v>5</v>
@@ -40748,7 +40745,7 @@
         <v>45071</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D367" s="9">
         <v>0</v>
@@ -40762,7 +40759,7 @@
         <v>45072</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D368" s="9">
         <v>0</v>
@@ -40776,7 +40773,7 @@
         <v>45073</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D369" s="9">
         <v>0</v>
@@ -40790,7 +40787,7 @@
         <v>45074</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D370" s="9">
         <v>0</v>
@@ -40804,7 +40801,7 @@
         <v>45075</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D371" s="9">
         <v>7</v>
@@ -40818,7 +40815,7 @@
         <v>45076</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D372" s="9">
         <v>0</v>
@@ -40832,7 +40829,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D373" s="9">
         <v>0</v>
@@ -44318,7 +44315,7 @@
         <v>45047</v>
       </c>
       <c r="C622" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D622" s="9">
         <v>0</v>
@@ -44332,7 +44329,7 @@
         <v>45048</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D623" s="9">
         <v>8</v>
@@ -44346,7 +44343,7 @@
         <v>45049</v>
       </c>
       <c r="C624" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D624" s="9">
         <v>5</v>
@@ -44360,7 +44357,7 @@
         <v>45050</v>
       </c>
       <c r="C625" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D625" s="9">
         <v>12</v>
@@ -44374,7 +44371,7 @@
         <v>45051</v>
       </c>
       <c r="C626" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D626" s="9">
         <v>0</v>
@@ -44388,7 +44385,7 @@
         <v>45052</v>
       </c>
       <c r="C627" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D627" s="9">
         <v>0</v>
@@ -44402,7 +44399,7 @@
         <v>45053</v>
       </c>
       <c r="C628" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D628" s="9">
         <v>0</v>
@@ -44416,7 +44413,7 @@
         <v>45054</v>
       </c>
       <c r="C629" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D629" s="9">
         <v>7</v>
@@ -44430,7 +44427,7 @@
         <v>45055</v>
       </c>
       <c r="C630" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D630" s="9">
         <v>9</v>
@@ -44444,7 +44441,7 @@
         <v>45056</v>
       </c>
       <c r="C631" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D631" s="9">
         <v>2</v>
@@ -44458,7 +44455,7 @@
         <v>45057</v>
       </c>
       <c r="C632" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D632" s="9">
         <v>9</v>
@@ -44472,7 +44469,7 @@
         <v>45058</v>
       </c>
       <c r="C633" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D633" s="14">
         <v>7</v>
@@ -44486,7 +44483,7 @@
         <v>45059</v>
       </c>
       <c r="C634" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D634" s="9">
         <v>0</v>
@@ -44500,7 +44497,7 @@
         <v>45060</v>
       </c>
       <c r="C635" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D635" s="9">
         <v>0</v>
@@ -44514,7 +44511,7 @@
         <v>45061</v>
       </c>
       <c r="C636" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D636" s="9">
         <v>3</v>
@@ -44528,7 +44525,7 @@
         <v>45062</v>
       </c>
       <c r="C637" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D637" s="9">
         <v>6</v>
@@ -44542,7 +44539,7 @@
         <v>45063</v>
       </c>
       <c r="C638" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D638" s="9">
         <v>5</v>
@@ -44556,7 +44553,7 @@
         <v>45064</v>
       </c>
       <c r="C639" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D639" s="9">
         <v>12</v>
@@ -44570,7 +44567,7 @@
         <v>45065</v>
       </c>
       <c r="C640" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D640" s="9">
         <v>10</v>
@@ -44584,7 +44581,7 @@
         <v>45066</v>
       </c>
       <c r="C641" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D641" s="9">
         <v>0</v>
@@ -44598,7 +44595,7 @@
         <v>45067</v>
       </c>
       <c r="C642" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D642" s="9">
         <v>0</v>
@@ -44612,7 +44609,7 @@
         <v>45068</v>
       </c>
       <c r="C643" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D643" s="9">
         <v>8</v>
@@ -44626,7 +44623,7 @@
         <v>45069</v>
       </c>
       <c r="C644" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D644" s="9">
         <v>9</v>
@@ -44640,7 +44637,7 @@
         <v>45070</v>
       </c>
       <c r="C645" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D645" s="9">
         <v>10</v>
@@ -44654,7 +44651,7 @@
         <v>45071</v>
       </c>
       <c r="C646" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D646" s="9">
         <v>7</v>
@@ -44668,7 +44665,7 @@
         <v>45072</v>
       </c>
       <c r="C647" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D647" s="9">
         <v>4</v>
@@ -44682,7 +44679,7 @@
         <v>45073</v>
       </c>
       <c r="C648" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D648" s="9">
         <v>0</v>
@@ -44696,7 +44693,7 @@
         <v>45074</v>
       </c>
       <c r="C649" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D649" s="9">
         <v>0</v>
@@ -44710,7 +44707,7 @@
         <v>45075</v>
       </c>
       <c r="C650" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D650" s="9">
         <v>7</v>
@@ -44724,7 +44721,7 @@
         <v>45076</v>
       </c>
       <c r="C651" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D651" s="9">
         <v>9</v>
@@ -44738,7 +44735,7 @@
         <v>45077</v>
       </c>
       <c r="C652" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D652" s="9">
         <v>2</v>
@@ -46488,7 +46485,7 @@
         <v>45047</v>
       </c>
       <c r="C777" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D777" s="9">
         <v>0</v>
@@ -46502,7 +46499,7 @@
         <v>45048</v>
       </c>
       <c r="C778" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D778" s="9">
         <v>0</v>
@@ -46516,7 +46513,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D779" s="9">
         <v>0</v>
@@ -46530,7 +46527,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D780" s="9">
         <v>0</v>
@@ -46544,7 +46541,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D781" s="9">
         <v>0</v>
@@ -46558,7 +46555,7 @@
         <v>45052</v>
       </c>
       <c r="C782" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D782" s="9">
         <v>0</v>
@@ -46572,7 +46569,7 @@
         <v>45053</v>
       </c>
       <c r="C783" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D783" s="9">
         <v>0</v>
@@ -46586,7 +46583,7 @@
         <v>45054</v>
       </c>
       <c r="C784" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D784" s="9">
         <v>0</v>
@@ -46600,7 +46597,7 @@
         <v>45055</v>
       </c>
       <c r="C785" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D785" s="9">
         <v>0</v>
@@ -46614,7 +46611,7 @@
         <v>45056</v>
       </c>
       <c r="C786" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D786" s="9">
         <v>0</v>
@@ -46628,7 +46625,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D787" s="9">
         <v>0</v>
@@ -46642,7 +46639,7 @@
         <v>45058</v>
       </c>
       <c r="C788" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D788" s="9">
         <v>0</v>
@@ -46656,7 +46653,7 @@
         <v>45059</v>
       </c>
       <c r="C789" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D789" s="9">
         <v>0</v>
@@ -46670,7 +46667,7 @@
         <v>45060</v>
       </c>
       <c r="C790" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D790" s="9">
         <v>0</v>
@@ -46684,7 +46681,7 @@
         <v>45061</v>
       </c>
       <c r="C791" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D791" s="9">
         <v>0</v>
@@ -46698,7 +46695,7 @@
         <v>45062</v>
       </c>
       <c r="C792" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D792" s="9">
         <v>0</v>
@@ -46712,7 +46709,7 @@
         <v>45063</v>
       </c>
       <c r="C793" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D793" s="9">
         <v>0</v>
@@ -46726,7 +46723,7 @@
         <v>45064</v>
       </c>
       <c r="C794" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D794" s="9">
         <v>0</v>
@@ -46740,7 +46737,7 @@
         <v>45065</v>
       </c>
       <c r="C795" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D795" s="9">
         <v>0</v>
@@ -46754,7 +46751,7 @@
         <v>45066</v>
       </c>
       <c r="C796" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D796" s="9">
         <v>0</v>
@@ -46768,7 +46765,7 @@
         <v>45067</v>
       </c>
       <c r="C797" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D797" s="9">
         <v>0</v>
@@ -46782,7 +46779,7 @@
         <v>45068</v>
       </c>
       <c r="C798" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D798" s="9">
         <v>0</v>
@@ -46796,7 +46793,7 @@
         <v>45069</v>
       </c>
       <c r="C799" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D799" s="9">
         <v>0</v>
@@ -46810,7 +46807,7 @@
         <v>45070</v>
       </c>
       <c r="C800" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D800" s="9">
         <v>0</v>
@@ -46824,7 +46821,7 @@
         <v>45071</v>
       </c>
       <c r="C801" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D801" s="9">
         <v>0</v>
@@ -46838,7 +46835,7 @@
         <v>45072</v>
       </c>
       <c r="C802" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D802" s="9">
         <v>0</v>
@@ -46852,7 +46849,7 @@
         <v>45073</v>
       </c>
       <c r="C803" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D803" s="9">
         <v>0</v>
@@ -46866,7 +46863,7 @@
         <v>45074</v>
       </c>
       <c r="C804" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D804" s="9">
         <v>0</v>
@@ -46880,7 +46877,7 @@
         <v>45075</v>
       </c>
       <c r="C805" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D805" s="9">
         <v>0</v>
@@ -46894,7 +46891,7 @@
         <v>45076</v>
       </c>
       <c r="C806" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D806" s="9">
         <v>0</v>
@@ -46908,7 +46905,7 @@
         <v>45077</v>
       </c>
       <c r="C807" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D807" s="9">
         <v>0</v>
@@ -46923,7 +46920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD23CFD5-D387-467F-AD73-7D18C31028D1}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -50071,7 +50068,7 @@
         <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T1" t="s">
         <v>37</v>
@@ -52376,7 +52373,7 @@
         <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -54670,7 +54667,7 @@
         <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T1" t="s">
         <v>37</v>
@@ -56948,7 +56945,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
@@ -59164,7 +59161,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
